--- a/Projects/5_Task/Resources/export_DB.xlsx
+++ b/Projects/5_Task/Resources/export_DB.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
+  <workbookPr codeName="DieseArbeitsmappe"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beckerle/Documents/Programming_Projects/OfficePythonProgramming/Projects/5_Task/Resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EA984C-6912-3747-8504-E7FEC1C5419B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="34200" windowHeight="21400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="export_DB"/>
+    <sheet name="export_DB" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0">export_DB!$A$1:$T$66</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -367,8 +373,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,72 +416,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:T66" displayName="Table_export_DB" name="Table_export_DB" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:T66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_export_DB" displayName="Table_export_DB" ref="A1:T66" totalsRowShown="0">
+  <autoFilter ref="A1:T66" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="20">
-    <tableColumn name="surveyID_pk" id="1"/>
-    <tableColumn name="organization" id="2"/>
-    <tableColumn name="startDate" id="3"/>
-    <tableColumn name="startQuartal" id="4"/>
-    <tableColumn name="endDate" id="5"/>
-    <tableColumn name="endQuartal" id="6"/>
-    <tableColumn name="sampleSize" id="7"/>
-    <tableColumn name="sampleSizeCategorie" id="8"/>
-    <tableColumn name="votersType" id="9"/>
-    <tableColumn name="approve" id="10"/>
-    <tableColumn name="approveCategorie" id="11"/>
-    <tableColumn name="disapprove" id="12"/>
-    <tableColumn name="disapproveCategorie" id="13"/>
-    <tableColumn name="unsure" id="14"/>
-    <tableColumn name="approveDemocrats" id="15"/>
-    <tableColumn name="democratsApproveCategorie" id="16"/>
-    <tableColumn name="approveRepublicans" id="17"/>
-    <tableColumn name="republicanApproveCategorie" id="18"/>
-    <tableColumn name="text" id="19"/>
-    <tableColumn name="url" id="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="surveyID_pk"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="organization"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="startDate"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="startQuartal"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="endDate"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="endQuartal"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="sampleSize"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="sampleSizeCategorie"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="votersType"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="approve"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="approveCategorie"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="disapprove"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="disapproveCategorie"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="unsure"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="approveDemocrats"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="democratsApproveCategorie"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="approveRepublicans"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="republicanApproveCategorie"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="text"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="url"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -485,10 +479,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -526,71 +520,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -618,7 +612,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -641,11 +635,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -654,13 +648,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -670,7 +664,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -679,7 +673,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -688,7 +682,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -696,10 +690,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -764,76 +758,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Tabelle1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="29.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="81.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="7" width="81.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="81.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -842,4049 +837,4049 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4">
+    <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>43296</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>42933</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>1500</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="4">
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3">
         <v>37</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="4">
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="3">
         <v>30</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="3">
         <v>33</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="3">
         <v>62</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="4">
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="3">
         <v>17</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4">
+    <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>42936</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>42940</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>3981</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>40</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="4">
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="3">
         <v>27</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="3">
         <v>33</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>53</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="4">
+      <c r="P3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="3">
         <v>31</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="2" t="s">
+      <c r="R3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4">
+    <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>43038</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>43039</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>1000</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="3">
         <v>39</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="3">
         <v>26</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="3">
         <v>34</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>60</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>25</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" s="2" t="s">
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4">
+    <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>43037</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>43040</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>1005</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="3">
         <v>58</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="3">
         <v>28</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="3">
         <v>14</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>78</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="4">
+      <c r="P5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="3">
         <v>38</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" s="2" t="s">
+      <c r="R5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4">
+    <row r="6" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>43070</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>43071</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>1000</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="3">
         <v>36</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="3">
         <v>28</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="4">
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="3">
         <v>35</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>58</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="4">
+      <c r="P6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="3">
         <v>17</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="2" t="s">
+      <c r="R6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4">
+    <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>43072</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>43074</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>1500</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="3">
         <v>36</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="4">
-        <v>25</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="4">
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="3">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="3">
         <v>38</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>61</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="4">
+      <c r="P7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="3">
         <v>22</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="2" t="s">
+      <c r="R7" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" t="s">
         <v>26</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4">
+    <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>43083</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>43086</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>1001</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="3">
         <v>47</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="3">
         <v>34</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="4">
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="3">
         <v>19</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>63</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="4">
+      <c r="P8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="3">
         <v>31</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="2" t="s">
+      <c r="R8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" t="s">
         <v>44</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="T8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="4">
+    <row r="9" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>43114</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>43118</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>1005</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="3">
         <v>47</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="3">
         <v>33</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="4">
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="3">
         <v>20</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>68</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="4">
+      <c r="P9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="3">
         <v>26</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9" s="2" t="s">
+      <c r="R9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" t="s">
         <v>44</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="T9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="4">
+    <row r="10" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>43115</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>43118</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>1005</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="3">
         <v>50</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="3">
         <v>31</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="3">
         <v>19</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>71</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="4">
+      <c r="P10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="3">
         <v>28</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10" s="2" t="s">
+      <c r="R10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="T10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="4">
+    <row r="11" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>43123</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>43124</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>1000</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="3">
         <v>37</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="4">
-        <v>25</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="3">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="3">
         <v>38</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>59</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>25</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S11" s="2" t="s">
+      <c r="P11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>25</v>
+      </c>
+      <c r="R11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" t="s">
         <v>36</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="T11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="4">
+    <row r="12" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>43126</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>43127</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>1000</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="3">
         <v>34</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="4">
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="3">
         <v>26</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="3">
         <v>39</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>58</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="4">
+      <c r="P12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="3">
         <v>18</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S12" s="2" t="s">
+      <c r="R12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" t="s">
         <v>36</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="T12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="4">
+    <row r="13" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>43128</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>43130</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>1500</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="3">
         <v>34</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="4">
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="3">
         <v>29</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="4">
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="3">
         <v>37</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>57</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="4">
+      <c r="P13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="3">
         <v>18</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S13" s="2" t="s">
+      <c r="R13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" t="s">
         <v>26</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="T13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="4">
+    <row r="14" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>43149</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>43151</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="3">
         <v>39</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="4">
-        <v>25</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="4">
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="3">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="3">
         <v>36</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>62</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>23</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S14" s="2" t="s">
+      <c r="P14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>23</v>
+      </c>
+      <c r="R14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" t="s">
         <v>26</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="T14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="4">
+    <row r="15" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>43151</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>43154</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>1016</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="3">
         <v>37</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="4">
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="3">
         <v>33</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="4">
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="3">
         <v>21</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>66</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="4">
+      <c r="P15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="3">
         <v>28</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S15" s="2" t="s">
+      <c r="R15" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" t="s">
         <v>44</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="T15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="4">
+    <row r="16" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>43169</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>43172</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>1500</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="3">
         <v>37</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="4">
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="3">
         <v>27</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="4">
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="3">
         <v>36</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>57</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" s="4">
+      <c r="P16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="3">
         <v>20</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S16" s="2" t="s">
+      <c r="R16" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" t="s">
         <v>26</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="T16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="4">
+    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>43174</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>43178</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>1994</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>45</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="4">
+      <c r="K17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="3">
         <v>27</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="4">
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="3">
         <v>27</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <v>62</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" s="4">
+      <c r="P17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="3">
         <v>35</v>
       </c>
-      <c r="R17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S17" s="2" t="s">
+      <c r="R17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" t="s">
         <v>31</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="T17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="4">
+    <row r="18" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>43181</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>43184</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>1014</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="4">
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="3">
         <v>38</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="4">
+      <c r="K18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="3">
         <v>35</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="4">
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="3">
         <v>17</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>69</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q18" s="4">
+      <c r="P18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="3">
         <v>29</v>
       </c>
-      <c r="R18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S18" s="2" t="s">
+      <c r="R18" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" t="s">
         <v>44</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="T18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="4">
+    <row r="19" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>43205</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>43207</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>1500</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="4">
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="3">
         <v>37</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="4">
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="3">
         <v>29</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="3">
         <v>33</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <v>61</v>
       </c>
-      <c r="P19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="4">
+      <c r="P19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="3">
         <v>19</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S19" s="2" t="s">
+      <c r="R19" t="s">
+        <v>24</v>
+      </c>
+      <c r="S19" t="s">
         <v>26</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="T19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="4">
+    <row r="20" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>43222</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>43225</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>1015</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="4">
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="3">
         <v>44</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" s="4">
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="3">
         <v>38</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="4">
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="3">
         <v>18</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <v>64</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q20" s="4">
+      <c r="P20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="3">
         <v>17</v>
       </c>
-      <c r="R20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S20" s="2" t="s">
+      <c r="R20" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" t="s">
         <v>44</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="T20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="4">
+    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>43226</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>43228</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>1500</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="3">
         <v>36</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="4">
+      <c r="K21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="3">
         <v>30</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="4">
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="3">
         <v>34</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <v>63</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q21" s="4">
+      <c r="P21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="3">
         <v>14</v>
       </c>
-      <c r="R21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S21" s="2" t="s">
+      <c r="R21" t="s">
+        <v>24</v>
+      </c>
+      <c r="S21" t="s">
         <v>26</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="T21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="4">
+    <row r="22" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>43230</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>43232</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="4">
+      <c r="I22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="3">
         <v>38</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" s="4">
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="3">
         <v>32</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="4">
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="3">
         <v>30</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="3">
         <v>70</v>
       </c>
-      <c r="P22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q22" s="4">
+      <c r="P22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="3">
         <v>19</v>
       </c>
-      <c r="R22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S22" s="2" t="s">
+      <c r="R22" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" t="s">
         <v>36</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="T22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="4">
+    <row r="23" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>43247</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>43249</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="4">
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="3">
         <v>38</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="4">
+      <c r="K23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="3">
         <v>31</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="4">
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="3">
         <v>31</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="3">
         <v>68</v>
       </c>
-      <c r="P23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q23" s="4">
+      <c r="P23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="3">
         <v>16</v>
       </c>
-      <c r="R23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S23" s="2" t="s">
+      <c r="R23" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" t="s">
         <v>26</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="T23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>43254</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>43257</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>1001</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>55</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="4">
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="3">
         <v>37</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="4">
+      <c r="M24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="3">
         <v>8</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="3">
         <v>84</v>
       </c>
-      <c r="P24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>23</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S24" s="2" t="s">
+      <c r="P24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>23</v>
+      </c>
+      <c r="R24" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" t="s">
         <v>63</v>
       </c>
-      <c r="T24" s="2" t="s">
+      <c r="T24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>43261</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>43263</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>1500</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="4">
-        <v>23</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="4">
+      <c r="I25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="3">
+        <v>23</v>
+      </c>
+      <c r="K25" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="3">
         <v>30</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="4">
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="3">
         <v>36</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="3">
         <v>66</v>
       </c>
-      <c r="P25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q25" s="4">
+      <c r="P25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="3">
         <v>13</v>
       </c>
-      <c r="R25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S25" s="2" t="s">
+      <c r="R25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" t="s">
         <v>26</v>
       </c>
-      <c r="T25" s="2" t="s">
+      <c r="T25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>43265</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>43268</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>1012</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="4">
+      <c r="I26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="3">
         <v>41</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" s="4">
+      <c r="K26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="3">
         <v>39</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="4">
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="3">
         <v>21</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="3">
         <v>62</v>
       </c>
-      <c r="P26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q26" s="4">
+      <c r="P26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="3">
         <v>20</v>
       </c>
-      <c r="R26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S26" s="2" t="s">
+      <c r="R26" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" t="s">
         <v>44</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="T26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="4">
+    <row r="27" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>43268</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>43270</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>1500</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="4">
+      <c r="I27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="3">
         <v>35</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" s="4">
+      <c r="K27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="3">
         <v>29</v>
       </c>
-      <c r="M27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" s="4">
+      <c r="M27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="3">
         <v>36</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="3">
         <v>64</v>
       </c>
-      <c r="P27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q27" s="4">
+      <c r="P27" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="3">
         <v>16</v>
       </c>
-      <c r="R27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S27" s="2" t="s">
+      <c r="R27" t="s">
+        <v>24</v>
+      </c>
+      <c r="S27" t="s">
         <v>26</v>
       </c>
-      <c r="T27" s="2" t="s">
+      <c r="T27" t="s">
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="4">
+    <row r="28" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>43278</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>43283</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>1473</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="4">
+      <c r="I28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="3">
         <v>49</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" s="4">
+      <c r="K28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="3">
         <v>45</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" s="4">
+      <c r="M28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="3">
         <v>4</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="3">
         <v>76</v>
       </c>
-      <c r="P28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q28" s="4">
+      <c r="P28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="3">
         <v>20</v>
       </c>
-      <c r="R28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S28" s="2" t="s">
+      <c r="R28" t="s">
+        <v>24</v>
+      </c>
+      <c r="S28" t="s">
         <v>68</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="T28" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="4">
+    <row r="29" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>43290</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>43292</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>1007</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <v>48</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="4">
+      <c r="K29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3">
         <v>40</v>
       </c>
-      <c r="M29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="4">
+      <c r="M29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>12</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="3">
         <v>72</v>
       </c>
-      <c r="P29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>25</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S29" s="2" t="s">
+      <c r="P29" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>25</v>
+      </c>
+      <c r="R29" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" t="s">
         <v>63</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="T29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="4">
+    <row r="30" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>43294</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>43295</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>1000</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" t="s">
         <v>35</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="4">
+      <c r="I30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="3">
         <v>36</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L30" s="4">
+      <c r="K30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="3">
         <v>33</v>
       </c>
-      <c r="M30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N30" s="4">
+      <c r="M30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="3">
         <v>30</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="3">
         <v>66</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q30" s="4">
+      <c r="P30" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="3">
         <v>18</v>
       </c>
-      <c r="R30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S30" s="2" t="s">
+      <c r="R30" t="s">
+        <v>24</v>
+      </c>
+      <c r="S30" t="s">
         <v>36</v>
       </c>
-      <c r="T30" s="2" t="s">
+      <c r="T30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="4">
+    <row r="31" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>43303</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>43305</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <v>1500</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="4">
+      <c r="I31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="3">
         <v>35</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31" s="4">
+      <c r="K31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="3">
         <v>30</v>
       </c>
-      <c r="M31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N31" s="4">
+      <c r="M31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="3">
         <v>15</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="3">
         <v>62</v>
       </c>
-      <c r="P31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q31" s="4">
+      <c r="P31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="3">
         <v>15</v>
       </c>
-      <c r="R31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S31" s="2" t="s">
+      <c r="R31" t="s">
+        <v>24</v>
+      </c>
+      <c r="S31" t="s">
         <v>26</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="T31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="4">
+    <row r="32" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>43310</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>43312</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" t="s">
         <v>22</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="4">
+      <c r="I32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="3">
         <v>36</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="4">
+      <c r="K32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="3">
         <v>32</v>
       </c>
-      <c r="M32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="4">
+      <c r="M32" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="3">
         <v>31</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="3">
         <v>65</v>
       </c>
-      <c r="P32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q32" s="4">
+      <c r="P32" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="3">
         <v>16</v>
       </c>
-      <c r="R32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S32" s="2" t="s">
+      <c r="R32" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" t="s">
         <v>26</v>
       </c>
-      <c r="T32" s="2" t="s">
+      <c r="T32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="4">
+    <row r="33" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>43317</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <v>43319</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <v>1500</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="4">
+      <c r="I33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="3">
         <v>35</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="4">
+      <c r="K33" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="3">
         <v>32</v>
       </c>
-      <c r="M33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" s="4">
+      <c r="M33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="3">
         <v>33</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33" s="3">
         <v>61</v>
       </c>
-      <c r="P33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q33" s="4">
+      <c r="P33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="3">
         <v>15</v>
       </c>
-      <c r="R33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S33" s="2" t="s">
+      <c r="R33" t="s">
+        <v>24</v>
+      </c>
+      <c r="S33" t="s">
         <v>26</v>
       </c>
-      <c r="T33" s="2" t="s">
+      <c r="T33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="4">
+    <row r="34" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>43321</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>43324</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <v>1002</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" t="s">
         <v>35</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34" s="4">
+      <c r="I34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="3">
         <v>47</v>
       </c>
-      <c r="K34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34" s="4">
+      <c r="K34" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="3">
         <v>39</v>
       </c>
-      <c r="M34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N34" s="4">
+      <c r="M34" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" s="3">
         <v>31</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34" s="3">
         <v>72</v>
       </c>
-      <c r="P34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q34" s="4">
+      <c r="P34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q34" s="3">
         <v>22</v>
       </c>
-      <c r="R34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S34" s="2" t="s">
+      <c r="R34" t="s">
+        <v>24</v>
+      </c>
+      <c r="S34" t="s">
         <v>44</v>
       </c>
-      <c r="T34" s="2" t="s">
+      <c r="T34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="4">
+    <row r="35" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>43324</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>43326</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <v>1500</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="4">
+      <c r="I35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="3">
         <v>38</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" s="4">
+      <c r="K35" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="3">
         <v>31</v>
       </c>
-      <c r="M35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N35" s="4">
+      <c r="M35" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="3">
         <v>32</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="3">
         <v>65</v>
       </c>
-      <c r="P35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q35" s="4">
+      <c r="P35" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="3">
         <v>21</v>
       </c>
-      <c r="R35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S35" s="2" t="s">
+      <c r="R35" t="s">
+        <v>24</v>
+      </c>
+      <c r="S35" t="s">
         <v>26</v>
       </c>
-      <c r="T35" s="2" t="s">
+      <c r="T35" t="s">
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="4">
+    <row r="36" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>43331</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>43333</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <v>1009</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" t="s">
         <v>30</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="3">
         <v>59</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L36" s="4">
+      <c r="K36" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="3">
         <v>37</v>
       </c>
-      <c r="M36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="4">
+      <c r="M36" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="3">
         <v>4</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O36" s="3">
         <v>84</v>
       </c>
-      <c r="P36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q36" s="4">
+      <c r="P36" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q36" s="3">
         <v>26</v>
       </c>
-      <c r="R36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S36" s="2" t="s">
+      <c r="R36" t="s">
+        <v>24</v>
+      </c>
+      <c r="S36" t="s">
         <v>63</v>
       </c>
-      <c r="T36" s="2" t="s">
+      <c r="T36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="4">
+    <row r="37" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>43338</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>43340</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <v>1500</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" t="s">
         <v>22</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="4">
+      <c r="I37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="3">
         <v>34</v>
       </c>
-      <c r="K37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L37" s="4">
+      <c r="K37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="3">
         <v>31</v>
       </c>
-      <c r="M37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N37" s="4">
+      <c r="M37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="3">
         <v>35</v>
       </c>
-      <c r="O37" s="4">
+      <c r="O37" s="3">
         <v>65</v>
       </c>
-      <c r="P37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q37" s="4">
+      <c r="P37" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="3">
         <v>15</v>
       </c>
-      <c r="R37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S37" s="2" t="s">
+      <c r="R37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S37" t="s">
         <v>26</v>
       </c>
-      <c r="T37" s="2" t="s">
+      <c r="T37" t="s">
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="4">
+    <row r="38" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>43345</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>43347</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <v>1500</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38" s="4">
+      <c r="I38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="3">
         <v>39</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38" s="4">
+      <c r="K38" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="3">
         <v>29</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N38" s="4">
+      <c r="M38" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" s="3">
         <v>30</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O38" s="3">
         <v>68</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q38" s="4">
+      <c r="P38" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="3">
         <v>13</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S38" s="2" t="s">
+      <c r="R38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S38" t="s">
         <v>26</v>
       </c>
-      <c r="T38" s="2" t="s">
+      <c r="T38" t="s">
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="4">
+    <row r="39" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>43349</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <v>43352</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <v>1003</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" t="s">
         <v>35</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J39" s="4">
+      <c r="I39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="3">
         <v>50</v>
       </c>
-      <c r="K39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="4">
+      <c r="K39" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="3">
         <v>38</v>
       </c>
-      <c r="M39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" s="4">
+      <c r="M39" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" s="3">
         <v>12</v>
       </c>
-      <c r="O39" s="4">
+      <c r="O39" s="3">
         <v>73</v>
       </c>
-      <c r="P39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>23</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S39" s="2" t="s">
+      <c r="P39" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>23</v>
+      </c>
+      <c r="R39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S39" t="s">
         <v>44</v>
       </c>
-      <c r="T39" s="2" t="s">
+      <c r="T39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="4">
+    <row r="40" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>43359</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <v>43361</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="3">
         <v>1500</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40" s="4">
+      <c r="I40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="3">
         <v>42</v>
       </c>
-      <c r="K40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L40" s="4">
+      <c r="K40" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="3">
         <v>32</v>
       </c>
-      <c r="M40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N40" s="4">
+      <c r="M40" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" s="3">
         <v>26</v>
       </c>
-      <c r="O40" s="4">
+      <c r="O40" s="3">
         <v>68</v>
       </c>
-      <c r="P40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>23</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S40" s="2" t="s">
+      <c r="P40" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>23</v>
+      </c>
+      <c r="R40" t="s">
+        <v>24</v>
+      </c>
+      <c r="S40" t="s">
         <v>26</v>
       </c>
-      <c r="T40" s="2" t="s">
+      <c r="T40" t="s">
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="4">
+    <row r="41" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>43359</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <v>43362</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="3">
         <v>1003</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" t="s">
         <v>30</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="3">
         <v>55</v>
       </c>
-      <c r="K41" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L41" s="4">
+      <c r="K41" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="3">
         <v>39</v>
       </c>
-      <c r="M41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N41" s="4">
+      <c r="M41" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" s="3">
         <v>7</v>
       </c>
-      <c r="O41" s="4">
+      <c r="O41" s="3">
         <v>82</v>
       </c>
-      <c r="P41" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q41" s="4">
-        <v>25</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S41" s="2" t="s">
+      <c r="P41" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>25</v>
+      </c>
+      <c r="R41" t="s">
+        <v>24</v>
+      </c>
+      <c r="S41" t="s">
         <v>63</v>
       </c>
-      <c r="T41" s="2" t="s">
+      <c r="T41" t="s">
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="4">
+    <row r="42" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>43377</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>43380</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="3">
         <v>1009</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" t="s">
         <v>35</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" s="4">
+      <c r="I42" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="3">
         <v>48</v>
       </c>
-      <c r="K42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L42" s="4">
+      <c r="K42" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="3">
         <v>36</v>
       </c>
-      <c r="M42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N42" s="4">
+      <c r="M42" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" s="3">
         <v>16</v>
       </c>
-      <c r="O42" s="4">
+      <c r="O42" s="3">
         <v>73</v>
       </c>
-      <c r="P42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>23</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S42" s="2" t="s">
+      <c r="P42" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>23</v>
+      </c>
+      <c r="R42" t="s">
+        <v>24</v>
+      </c>
+      <c r="S42" t="s">
         <v>44</v>
       </c>
-      <c r="T42" s="2" t="s">
+      <c r="T42" t="s">
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="4">
+    <row r="43" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>43436</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>43438</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="3">
         <v>1500</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" t="s">
         <v>22</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="4">
+      <c r="I43" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="3">
         <v>38</v>
       </c>
-      <c r="K43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="4">
+      <c r="K43" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="3">
         <v>31</v>
       </c>
-      <c r="M43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" s="4">
+      <c r="M43" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="3">
         <v>30</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O43" s="3">
         <v>70</v>
       </c>
-      <c r="P43" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q43" s="4">
+      <c r="P43" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q43" s="3">
         <v>16</v>
       </c>
-      <c r="R43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S43" s="2" t="s">
+      <c r="R43" t="s">
+        <v>24</v>
+      </c>
+      <c r="S43" t="s">
         <v>26</v>
       </c>
-      <c r="T43" s="2" t="s">
+      <c r="T43" t="s">
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="4">
+    <row r="44" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>43440</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>43443</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="3">
         <v>1015</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" t="s">
         <v>35</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J44" s="4">
+      <c r="I44" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="3">
         <v>43</v>
       </c>
-      <c r="K44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L44" s="4">
+      <c r="K44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="3">
         <v>40</v>
       </c>
-      <c r="M44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N44" s="4">
+      <c r="M44" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" s="3">
         <v>16</v>
       </c>
-      <c r="O44" s="4">
+      <c r="O44" s="3">
         <v>71</v>
       </c>
-      <c r="P44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q44" s="4">
+      <c r="P44" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q44" s="3">
         <v>21</v>
       </c>
-      <c r="R44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S44" s="2" t="s">
+      <c r="R44" t="s">
+        <v>24</v>
+      </c>
+      <c r="S44" t="s">
         <v>44</v>
       </c>
-      <c r="T44" s="2" t="s">
+      <c r="T44" t="s">
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="4">
+    <row r="45" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>43443</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <v>43445</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="3">
         <v>1006</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" t="s">
         <v>35</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" t="s">
         <v>30</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="3">
         <v>56</v>
       </c>
-      <c r="K45" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L45" s="4">
+      <c r="K45" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="3">
         <v>37</v>
       </c>
-      <c r="M45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N45" s="4">
+      <c r="M45" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" s="3">
         <v>7</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O45" s="3">
         <v>82</v>
       </c>
-      <c r="P45" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q45" s="4">
+      <c r="P45" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="3">
         <v>27</v>
       </c>
-      <c r="R45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S45" s="2" t="s">
+      <c r="R45" t="s">
+        <v>24</v>
+      </c>
+      <c r="S45" t="s">
         <v>63</v>
       </c>
-      <c r="T45" s="2" t="s">
+      <c r="T45" t="s">
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="4">
+    <row r="46" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>43443</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <v>43445</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="4">
+      <c r="I46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="3">
         <v>41</v>
       </c>
-      <c r="K46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L46" s="4">
+      <c r="K46" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="3">
         <v>33</v>
       </c>
-      <c r="M46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N46" s="4">
+      <c r="M46" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" s="3">
         <v>26</v>
       </c>
-      <c r="O46" s="4">
+      <c r="O46" s="3">
         <v>68</v>
       </c>
-      <c r="P46" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q46" s="4">
+      <c r="P46" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q46" s="3">
         <v>21</v>
       </c>
-      <c r="R46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S46" s="2" t="s">
+      <c r="R46" t="s">
+        <v>24</v>
+      </c>
+      <c r="S46" t="s">
         <v>26</v>
       </c>
-      <c r="T46" s="2" t="s">
+      <c r="T46" t="s">
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="4">
+    <row r="47" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>43446</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <v>43451</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" t="s">
         <v>34</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="3">
         <v>1147</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" t="s">
         <v>35</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" t="s">
         <v>30</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="3">
         <v>45</v>
       </c>
-      <c r="K47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" s="4">
+      <c r="K47" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="3">
         <v>38</v>
       </c>
-      <c r="M47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N47" s="4">
+      <c r="M47" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" s="3">
         <v>17</v>
       </c>
-      <c r="O47" s="4">
+      <c r="O47" s="3">
         <v>72</v>
       </c>
-      <c r="P47" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q47" s="4">
+      <c r="P47" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q47" s="3">
         <v>17</v>
       </c>
-      <c r="R47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S47" s="2" t="s">
+      <c r="R47" t="s">
+        <v>24</v>
+      </c>
+      <c r="S47" t="s">
         <v>89</v>
       </c>
-      <c r="T47" s="2" t="s">
+      <c r="T47" t="s">
         <v>90</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="4">
+    <row r="48" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>43485</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <v>43487</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" t="s">
         <v>46</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="3">
         <v>1008</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" t="s">
         <v>35</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" t="s">
         <v>30</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48" s="3">
         <v>49</v>
       </c>
-      <c r="K48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="4">
+      <c r="K48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="3">
         <v>34</v>
       </c>
-      <c r="M48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N48" s="4">
+      <c r="M48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" s="3">
         <v>17</v>
       </c>
-      <c r="O48" s="4">
+      <c r="O48" s="3">
         <v>80</v>
       </c>
-      <c r="P48" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q48" s="4">
+      <c r="P48" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q48" s="3">
         <v>21</v>
       </c>
-      <c r="R48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S48" s="2" t="s">
+      <c r="R48" t="s">
+        <v>24</v>
+      </c>
+      <c r="S48" t="s">
         <v>63</v>
       </c>
-      <c r="T48" s="2" t="s">
+      <c r="T48" t="s">
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="4">
+    <row r="49" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>43485</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>43487</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" t="s">
         <v>46</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="3">
         <v>1500</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" t="s">
         <v>22</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" s="4">
+      <c r="I49" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="3">
         <v>40</v>
       </c>
-      <c r="K49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L49" s="4">
+      <c r="K49" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="3">
         <v>30</v>
       </c>
-      <c r="M49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N49" s="4">
+      <c r="M49" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" s="3">
         <v>30</v>
       </c>
-      <c r="O49" s="4">
+      <c r="O49" s="3">
         <v>66</v>
       </c>
-      <c r="P49" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q49" s="4">
+      <c r="P49" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q49" s="3">
         <v>22</v>
       </c>
-      <c r="R49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S49" s="2" t="s">
+      <c r="R49" t="s">
+        <v>24</v>
+      </c>
+      <c r="S49" t="s">
         <v>26</v>
       </c>
-      <c r="T49" s="2" t="s">
+      <c r="T49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="4">
+    <row r="50" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>43495</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="4">
         <v>43498</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" t="s">
         <v>46</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="3">
         <v>1011</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" t="s">
         <v>35</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J50" s="4">
+      <c r="I50" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="3">
         <v>44</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L50" s="4">
+      <c r="K50" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" s="3">
         <v>41</v>
       </c>
-      <c r="M50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N50" s="4">
+      <c r="M50" t="s">
+        <v>24</v>
+      </c>
+      <c r="N50" s="3">
         <v>15</v>
       </c>
-      <c r="O50" s="4">
+      <c r="O50" s="3">
         <v>67</v>
       </c>
-      <c r="P50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q50" s="4">
+      <c r="P50" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" s="3">
         <v>20</v>
       </c>
-      <c r="R50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S50" s="2" t="s">
+      <c r="R50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S50" t="s">
         <v>44</v>
       </c>
-      <c r="T50" s="2" t="s">
+      <c r="T50" t="s">
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="4">
+    <row r="51" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <v>43503</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="4">
         <v>43504</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="3">
         <v>1000</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" t="s">
         <v>35</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="4">
+      <c r="I51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="3">
         <v>36</v>
       </c>
-      <c r="K51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L51" s="4">
+      <c r="K51" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="3">
         <v>33</v>
       </c>
-      <c r="M51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N51" s="4">
+      <c r="M51" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" s="3">
         <v>31</v>
       </c>
-      <c r="O51" s="4">
+      <c r="O51" s="3">
         <v>63</v>
       </c>
-      <c r="P51" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q51" s="4">
+      <c r="P51" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q51" s="3">
         <v>16</v>
       </c>
-      <c r="R51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S51" s="2" t="s">
+      <c r="R51" t="s">
+        <v>24</v>
+      </c>
+      <c r="S51" t="s">
         <v>36</v>
       </c>
-      <c r="T51" s="2" t="s">
+      <c r="T51" t="s">
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="4">
+    <row r="52" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <v>43502</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="4">
         <v>43506</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" t="s">
         <v>46</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="3">
         <v>841</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" t="s">
         <v>95</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J52" s="4">
+      <c r="I52" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="3">
         <v>51</v>
       </c>
-      <c r="K52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L52" s="4">
+      <c r="K52" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" s="3">
         <v>34</v>
       </c>
-      <c r="M52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N52" s="4">
+      <c r="M52" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52" s="3">
         <v>15</v>
       </c>
-      <c r="O52" s="4">
+      <c r="O52" s="3">
         <v>77</v>
       </c>
-      <c r="P52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q52" s="4">
+      <c r="P52" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q52" s="3">
         <v>22</v>
       </c>
-      <c r="R52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S52" s="2" t="s">
+      <c r="R52" t="s">
+        <v>24</v>
+      </c>
+      <c r="S52" t="s">
         <v>31</v>
       </c>
-      <c r="T52" s="2" t="s">
+      <c r="T52" t="s">
         <v>96</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="4">
+    <row r="53" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <v>43520</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" t="s">
         <v>46</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="4">
         <v>43522</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" t="s">
         <v>46</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="3">
         <v>1500</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" t="s">
         <v>22</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J53" s="4">
+      <c r="I53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" s="3">
         <v>40</v>
       </c>
-      <c r="K53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L53" s="4">
+      <c r="K53" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" s="3">
         <v>30</v>
       </c>
-      <c r="M53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N53" s="4">
+      <c r="M53" t="s">
+        <v>24</v>
+      </c>
+      <c r="N53" s="3">
         <v>30</v>
       </c>
-      <c r="O53" s="4">
+      <c r="O53" s="3">
         <v>62</v>
       </c>
-      <c r="P53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q53" s="4">
+      <c r="P53" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q53" s="3">
         <v>22</v>
       </c>
-      <c r="R53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S53" s="2" t="s">
+      <c r="R53" t="s">
+        <v>24</v>
+      </c>
+      <c r="S53" t="s">
         <v>26</v>
       </c>
-      <c r="T53" s="2" t="s">
+      <c r="T53" t="s">
         <v>97</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="4">
+    <row r="54" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <v>43527</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="4">
         <v>43529</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" t="s">
         <v>46</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" t="s">
         <v>22</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J54" s="4">
+      <c r="I54" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="3">
         <v>37</v>
       </c>
-      <c r="K54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L54" s="4">
+      <c r="K54" t="s">
+        <v>24</v>
+      </c>
+      <c r="L54" s="3">
         <v>34</v>
       </c>
-      <c r="M54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N54" s="4">
+      <c r="M54" t="s">
+        <v>24</v>
+      </c>
+      <c r="N54" s="3">
         <v>28</v>
       </c>
-      <c r="O54" s="4">
+      <c r="O54" s="3">
         <v>65</v>
       </c>
-      <c r="P54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q54" s="4">
+      <c r="P54" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q54" s="3">
         <v>15</v>
       </c>
-      <c r="R54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S54" s="2" t="s">
+      <c r="R54" t="s">
+        <v>24</v>
+      </c>
+      <c r="S54" t="s">
         <v>26</v>
       </c>
-      <c r="T54" s="2" t="s">
+      <c r="T54" t="s">
         <v>98</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="4">
+    <row r="55" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>43538</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" t="s">
         <v>46</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="4">
         <v>43541</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" t="s">
         <v>46</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="3">
         <v>1003</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H55" t="s">
         <v>35</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J55" s="4">
+      <c r="I55" t="s">
+        <v>23</v>
+      </c>
+      <c r="J55" s="3">
         <v>48</v>
       </c>
-      <c r="K55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L55" s="4">
+      <c r="K55" t="s">
+        <v>24</v>
+      </c>
+      <c r="L55" s="3">
         <v>37</v>
       </c>
-      <c r="M55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N55" s="4">
+      <c r="M55" t="s">
+        <v>24</v>
+      </c>
+      <c r="N55" s="3">
         <v>15</v>
       </c>
-      <c r="O55" s="4">
+      <c r="O55" s="3">
         <v>75</v>
       </c>
-      <c r="P55" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q55" s="4">
+      <c r="P55" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q55" s="3">
         <v>20</v>
       </c>
-      <c r="R55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S55" s="2" t="s">
+      <c r="R55" t="s">
+        <v>24</v>
+      </c>
+      <c r="S55" t="s">
         <v>44</v>
       </c>
-      <c r="T55" s="2" t="s">
+      <c r="T55" t="s">
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="4">
+    <row r="56" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>43541</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" t="s">
         <v>46</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="4">
         <v>43544</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" t="s">
         <v>46</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="3">
         <v>1002</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" t="s">
         <v>35</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" t="s">
         <v>30</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="3">
         <v>52</v>
       </c>
-      <c r="K56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L56" s="4">
+      <c r="K56" t="s">
+        <v>25</v>
+      </c>
+      <c r="L56" s="3">
         <v>36</v>
       </c>
-      <c r="M56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N56" s="4">
+      <c r="M56" t="s">
+        <v>24</v>
+      </c>
+      <c r="N56" s="3">
         <v>12</v>
       </c>
-      <c r="O56" s="4">
+      <c r="O56" s="3">
         <v>82</v>
       </c>
-      <c r="P56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q56" s="4">
-        <v>23</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S56" s="2" t="s">
+      <c r="P56" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>23</v>
+      </c>
+      <c r="R56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S56" t="s">
         <v>63</v>
       </c>
-      <c r="T56" s="2" t="s">
+      <c r="T56" t="s">
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="4">
+    <row r="57" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <v>43548</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" t="s">
         <v>46</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="4">
         <v>43550</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" t="s">
         <v>46</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" t="s">
         <v>22</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J57" s="4">
+      <c r="I57" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="3">
         <v>48</v>
       </c>
-      <c r="K57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L57" s="4">
-        <v>25</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N57" s="4">
+      <c r="K57" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" s="3">
+        <v>25</v>
+      </c>
+      <c r="M57" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" s="3">
         <v>27</v>
       </c>
-      <c r="O57" s="4">
+      <c r="O57" s="3">
         <v>72</v>
       </c>
-      <c r="P57" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q57" s="4">
+      <c r="P57" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q57" s="3">
         <v>35</v>
       </c>
-      <c r="R57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S57" s="2" t="s">
+      <c r="R57" t="s">
+        <v>24</v>
+      </c>
+      <c r="S57" t="s">
         <v>26</v>
       </c>
-      <c r="T57" s="2" t="s">
+      <c r="T57" t="s">
         <v>101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="4">
+    <row r="58" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
         <v>102</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>43549</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" t="s">
         <v>46</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="4">
         <v>43551</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" t="s">
         <v>46</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="3">
         <v>938</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" t="s">
         <v>95</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J58" s="4">
+      <c r="I58" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="3">
         <v>51</v>
       </c>
-      <c r="K58" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L58" s="4">
+      <c r="K58" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" s="3">
         <v>27</v>
       </c>
-      <c r="M58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N58" s="4">
+      <c r="M58" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" s="3">
         <v>22</v>
       </c>
-      <c r="O58" s="4">
+      <c r="O58" s="3">
         <v>53</v>
       </c>
-      <c r="P58" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q58" s="4">
+      <c r="P58" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q58" s="3">
         <v>47</v>
       </c>
-      <c r="R58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S58" s="2" t="s">
+      <c r="R58" t="s">
+        <v>24</v>
+      </c>
+      <c r="S58" t="s">
         <v>103</v>
       </c>
-      <c r="T58" s="2" t="s">
+      <c r="T58" t="s">
         <v>104</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="4">
+    <row r="59" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="4">
         <v>43549</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" t="s">
         <v>46</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="4">
         <v>43551</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" t="s">
         <v>46</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" t="s">
         <v>35</v>
       </c>
-      <c r="I59" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J59" s="4">
+      <c r="I59" t="s">
+        <v>23</v>
+      </c>
+      <c r="J59" s="3">
         <v>43</v>
       </c>
-      <c r="K59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L59" s="4">
+      <c r="K59" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" s="3">
         <v>27</v>
       </c>
-      <c r="M59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N59" s="4">
+      <c r="M59" t="s">
+        <v>24</v>
+      </c>
+      <c r="N59" s="3">
         <v>30</v>
       </c>
-      <c r="O59" s="4">
+      <c r="O59" s="3">
         <v>51</v>
       </c>
-      <c r="P59" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q59" s="4">
+      <c r="P59" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q59" s="3">
         <v>44</v>
       </c>
-      <c r="R59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S59" s="2" t="s">
+      <c r="R59" t="s">
+        <v>24</v>
+      </c>
+      <c r="S59" t="s">
         <v>36</v>
       </c>
-      <c r="T59" s="2" t="s">
+      <c r="T59" t="s">
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="4">
+    <row r="60" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <v>43550</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" t="s">
         <v>46</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="4">
         <v>43553</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" t="s">
         <v>46</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="3">
         <v>640</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" t="s">
         <v>95</v>
       </c>
-      <c r="I60" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J60" s="4">
+      <c r="I60" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="3">
         <v>53</v>
       </c>
-      <c r="K60" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L60" s="4">
+      <c r="K60" t="s">
+        <v>25</v>
+      </c>
+      <c r="L60" s="3">
         <v>30</v>
       </c>
-      <c r="M60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N60" s="4">
+      <c r="M60" t="s">
+        <v>24</v>
+      </c>
+      <c r="N60" s="3">
         <v>17</v>
       </c>
-      <c r="O60" s="4">
+      <c r="O60" s="3">
         <v>62</v>
       </c>
-      <c r="P60" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q60" s="4">
+      <c r="P60" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q60" s="3">
         <v>46</v>
       </c>
-      <c r="R60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S60" s="2" t="s">
+      <c r="R60" t="s">
+        <v>24</v>
+      </c>
+      <c r="S60" t="s">
         <v>31</v>
       </c>
-      <c r="T60" s="2" t="s">
+      <c r="T60" t="s">
         <v>106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="4">
+    <row r="61" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <v>43555</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="4">
         <v>43557</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" t="s">
         <v>56</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="3">
         <v>1500</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" t="s">
         <v>22</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J61" s="4">
+      <c r="I61" t="s">
+        <v>23</v>
+      </c>
+      <c r="J61" s="3">
         <v>48</v>
       </c>
-      <c r="K61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L61" s="4">
-        <v>25</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N61" s="4">
+      <c r="K61" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" s="3">
+        <v>25</v>
+      </c>
+      <c r="M61" t="s">
+        <v>24</v>
+      </c>
+      <c r="N61" s="3">
         <v>27</v>
       </c>
-      <c r="O61" s="4">
+      <c r="O61" s="3">
         <v>63</v>
       </c>
-      <c r="P61" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q61" s="4">
+      <c r="P61" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q61" s="3">
         <v>42</v>
       </c>
-      <c r="R61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S61" s="2" t="s">
+      <c r="R61" t="s">
+        <v>24</v>
+      </c>
+      <c r="S61" t="s">
         <v>26</v>
       </c>
-      <c r="T61" s="2" t="s">
+      <c r="T61" t="s">
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="4">
+    <row r="62" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="4">
         <v>43568</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" t="s">
         <v>56</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="4">
         <v>43571</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" t="s">
         <v>56</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" t="s">
         <v>22</v>
       </c>
-      <c r="I62" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J62" s="4">
+      <c r="I62" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62" s="3">
         <v>45</v>
       </c>
-      <c r="K62" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L62" s="4">
-        <v>23</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N62" s="4">
+      <c r="K62" t="s">
+        <v>24</v>
+      </c>
+      <c r="L62" s="3">
+        <v>23</v>
+      </c>
+      <c r="M62" t="s">
+        <v>24</v>
+      </c>
+      <c r="N62" s="3">
         <v>32</v>
       </c>
-      <c r="O62" s="4">
+      <c r="O62" s="3">
         <v>62</v>
       </c>
-      <c r="P62" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q62" s="4">
+      <c r="P62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q62" s="3">
         <v>35</v>
       </c>
-      <c r="R62" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S62" s="2" t="s">
+      <c r="R62" t="s">
+        <v>24</v>
+      </c>
+      <c r="S62" t="s">
         <v>26</v>
       </c>
-      <c r="T62" s="2" t="s">
+      <c r="T62" t="s">
         <v>108</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="4">
+    <row r="63" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4">
         <v>43573</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" t="s">
         <v>56</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="4">
         <v>43574</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" t="s">
         <v>56</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="3">
         <v>1000</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" t="s">
         <v>35</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J63" s="4">
+      <c r="I63" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63" s="3">
         <v>44</v>
       </c>
-      <c r="K63" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L63" s="4">
+      <c r="K63" t="s">
+        <v>24</v>
+      </c>
+      <c r="L63" s="3">
         <v>28</v>
       </c>
-      <c r="M63" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N63" s="4">
+      <c r="M63" t="s">
+        <v>24</v>
+      </c>
+      <c r="N63" s="3">
         <v>27</v>
       </c>
-      <c r="O63" s="4">
+      <c r="O63" s="3">
         <v>59</v>
       </c>
-      <c r="P63" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q63" s="4">
+      <c r="P63" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q63" s="3">
         <v>39</v>
       </c>
-      <c r="R63" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S63" s="2" t="s">
+      <c r="R63" t="s">
+        <v>24</v>
+      </c>
+      <c r="S63" t="s">
         <v>109</v>
       </c>
-      <c r="T63" s="2" t="s">
+      <c r="T63" t="s">
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="4">
+    <row r="64" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" t="s">
         <v>20</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="4">
         <v>43576</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" t="s">
         <v>56</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="4">
         <v>43578</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" t="s">
         <v>56</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="3">
         <v>1500</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" t="s">
         <v>22</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J64" s="4">
+      <c r="I64" t="s">
+        <v>23</v>
+      </c>
+      <c r="J64" s="3">
         <v>47</v>
       </c>
-      <c r="K64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L64" s="4">
+      <c r="K64" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" s="3">
         <v>27</v>
       </c>
-      <c r="M64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N64" s="4">
+      <c r="M64" t="s">
+        <v>24</v>
+      </c>
+      <c r="N64" s="3">
         <v>26</v>
       </c>
-      <c r="O64" s="4">
+      <c r="O64" s="3">
         <v>64</v>
       </c>
-      <c r="P64" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q64" s="4">
+      <c r="P64" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q64" s="3">
         <v>37</v>
       </c>
-      <c r="R64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S64" s="2" t="s">
+      <c r="R64" t="s">
+        <v>24</v>
+      </c>
+      <c r="S64" t="s">
         <v>26</v>
       </c>
-      <c r="T64" s="2" t="s">
+      <c r="T64" t="s">
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="4">
+    <row r="65" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" t="s">
         <v>43</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="4">
         <v>43580</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" t="s">
         <v>56</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="4">
         <v>43583</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" t="s">
         <v>56</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="3">
         <v>1007</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" t="s">
         <v>35</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J65" s="4">
+      <c r="I65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65" s="3">
         <v>59</v>
       </c>
-      <c r="K65" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L65" s="4">
+      <c r="K65" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" s="3">
         <v>30</v>
       </c>
-      <c r="M65" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N65" s="4">
+      <c r="M65" t="s">
+        <v>24</v>
+      </c>
+      <c r="N65" s="3">
         <v>11</v>
       </c>
-      <c r="O65" s="4">
+      <c r="O65" s="3">
         <v>69</v>
       </c>
-      <c r="P65" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q65" s="4">
+      <c r="P65" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q65" s="3">
         <v>50</v>
       </c>
-      <c r="R65" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S65" s="2" t="s">
+      <c r="R65" t="s">
+        <v>24</v>
+      </c>
+      <c r="S65" t="s">
         <v>112</v>
       </c>
-      <c r="T65" s="2" t="s">
+      <c r="T65" t="s">
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="4">
+    <row r="66" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" t="s">
         <v>102</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <v>43579</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" t="s">
         <v>56</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="4">
         <v>43584</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" t="s">
         <v>56</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="3">
         <v>1017</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" t="s">
         <v>35</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J66" s="4">
+      <c r="I66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J66" s="3">
         <v>54</v>
       </c>
-      <c r="K66" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L66" s="4">
+      <c r="K66" t="s">
+        <v>25</v>
+      </c>
+      <c r="L66" s="3">
         <v>26</v>
       </c>
-      <c r="M66" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N66" s="4">
+      <c r="M66" t="s">
+        <v>24</v>
+      </c>
+      <c r="N66" s="3">
         <v>20</v>
       </c>
-      <c r="O66" s="4">
+      <c r="O66" s="3">
         <v>61</v>
       </c>
-      <c r="P66" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q66" s="4">
+      <c r="P66" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q66" s="3">
         <v>47</v>
       </c>
-      <c r="R66" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S66" s="2" t="s">
+      <c r="R66" t="s">
+        <v>24</v>
+      </c>
+      <c r="S66" t="s">
         <v>103</v>
       </c>
-      <c r="T66" s="2" t="s">
+      <c r="T66" t="s">
         <v>114</v>
       </c>
     </row>
